--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,55 +440,333 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date/Time</t>
+          <t>Transaction_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Cost</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Product Details</t>
+          <t>Total_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product_ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Product_Name</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45231.44096234954</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45233.65696068287</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Margerita</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45231.44285791666</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45233.65696068287</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Spicy</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45232.92835534722</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45233.65696068287</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fancy</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45233.44736842287</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45233.65892061342</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Margerita</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45233.65892061342</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Spicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45233.65892061342</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45233.65996528935</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Margerita</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45233.65996528935</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Spicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45233.65996528935</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45233.68449534913</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Margerita</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45233.68449534913</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Spicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45233.68449534913</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fancy</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45233.68449534913</v>
+        <v>45233.68449534722</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45233.68449534913</v>
+        <v>45233.68449534722</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45233.68449534913</v>
+        <v>45233.68449534722</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
@@ -765,6 +765,131 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>Fancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45234.50422506529</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>product 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45234.50422506529</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>product 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45234.50422506529</v>
+      </c>
+      <c r="C16" t="n">
+        <v>255</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>product 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45234.50422506529</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45234.50422506529</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>product 2</t>
         </is>
       </c>
     </row>
